--- a/final_data_pipeline/output/311613longform_elec_options_nowhp.xlsx
+++ b/final_data_pipeline/output/311613longform_elec_options_nowhp.xlsx
@@ -886,7 +886,7 @@
         <v>54</v>
       </c>
       <c r="I7">
-        <v>10</v>
+        <v>19.79629629629628</v>
       </c>
       <c r="J7">
         <v>8000</v>
@@ -901,10 +901,10 @@
         <v>289266.3961818336</v>
       </c>
       <c r="N7">
-        <v>1.303382352941176</v>
+        <v>1.383082880591839</v>
       </c>
       <c r="O7">
-        <v>1.36921875</v>
+        <v>1.45851929478486</v>
       </c>
       <c r="P7">
         <v>36.1582995227292</v>
@@ -939,7 +939,7 @@
         <v>54</v>
       </c>
       <c r="I8">
-        <v>10</v>
+        <v>16.86342592592595</v>
       </c>
       <c r="J8">
         <v>8000</v>
@@ -954,10 +954,10 @@
         <v>1019438.383115722</v>
       </c>
       <c r="N8">
-        <v>1.303382352941176</v>
+        <v>1.358217807733239</v>
       </c>
       <c r="O8">
-        <v>1.36921875</v>
+        <v>1.430585745597461</v>
       </c>
       <c r="P8">
         <v>127.4297978894652</v>
@@ -992,7 +992,7 @@
         <v>54</v>
       </c>
       <c r="I9">
-        <v>10</v>
+        <v>5.486111111111112</v>
       </c>
       <c r="J9">
         <v>8000</v>
@@ -1007,10 +1007,10 @@
         <v>695701.5504240837</v>
       </c>
       <c r="N9">
-        <v>1.303382352941176</v>
+        <v>1.26966971746916</v>
       </c>
       <c r="O9">
-        <v>1.36921875</v>
+        <v>1.331650485436893</v>
       </c>
       <c r="P9">
         <v>86.96269380301047</v>
@@ -1045,7 +1045,7 @@
         <v>54</v>
       </c>
       <c r="I10">
-        <v>10</v>
+        <v>14.96875</v>
       </c>
       <c r="J10">
         <v>8000</v>
@@ -1060,10 +1060,10 @@
         <v>372756.4302623934</v>
       </c>
       <c r="N10">
-        <v>1.303382352941176</v>
+        <v>1.34262450293505</v>
       </c>
       <c r="O10">
-        <v>1.36921875</v>
+        <v>1.413102197137674</v>
       </c>
       <c r="P10">
         <v>46.59455378279918</v>
@@ -1098,7 +1098,7 @@
         <v>55</v>
       </c>
       <c r="I11">
-        <v>10</v>
+        <v>14.96875</v>
       </c>
       <c r="J11">
         <v>8000</v>
@@ -1145,7 +1145,7 @@
         <v>54</v>
       </c>
       <c r="I12">
-        <v>10</v>
+        <v>17.25771604938272</v>
       </c>
       <c r="J12">
         <v>8000</v>
@@ -1160,10 +1160,10 @@
         <v>1049973.171167949</v>
       </c>
       <c r="N12">
-        <v>1.303382352941176</v>
+        <v>1.361508482130158</v>
       </c>
       <c r="O12">
-        <v>1.36921875</v>
+        <v>1.434278670802308</v>
       </c>
       <c r="P12">
         <v>131.2466463959936</v>
@@ -1404,7 +1404,7 @@
         <v>54</v>
       </c>
       <c r="I17">
-        <v>10</v>
+        <v>13.75752314814816</v>
       </c>
       <c r="J17">
         <v>8000</v>
@@ -1419,10 +1419,10 @@
         <v>190277.2931716102</v>
       </c>
       <c r="N17">
-        <v>1.303382352941176</v>
+        <v>1.3328422686908</v>
       </c>
       <c r="O17">
-        <v>1.36921875</v>
+        <v>1.402147510806076</v>
       </c>
       <c r="P17">
         <v>23.78466164645127</v>
@@ -1457,7 +1457,7 @@
         <v>55</v>
       </c>
       <c r="I18">
-        <v>10</v>
+        <v>13.75752314814816</v>
       </c>
       <c r="J18">
         <v>8000</v>
@@ -1557,7 +1557,7 @@
         <v>54</v>
       </c>
       <c r="I20">
-        <v>10</v>
+        <v>14.96875</v>
       </c>
       <c r="J20">
         <v>8000</v>
@@ -1572,10 +1572,10 @@
         <v>541191.5766880986</v>
       </c>
       <c r="N20">
-        <v>1.303382352941176</v>
+        <v>1.34262450293505</v>
       </c>
       <c r="O20">
-        <v>1.36921875</v>
+        <v>1.413102197137674</v>
       </c>
       <c r="P20">
         <v>67.64894708601233</v>
@@ -1610,7 +1610,7 @@
         <v>55</v>
       </c>
       <c r="I21">
-        <v>10</v>
+        <v>14.96875</v>
       </c>
       <c r="J21">
         <v>8000</v>
@@ -1763,7 +1763,7 @@
         <v>54</v>
       </c>
       <c r="I24">
-        <v>10</v>
+        <v>13.0158303464755</v>
       </c>
       <c r="J24">
         <v>8000</v>
@@ -1778,10 +1778,10 @@
         <v>1144666.173174227</v>
       </c>
       <c r="N24">
-        <v>1.303382352941176</v>
+        <v>1.326922189449132</v>
       </c>
       <c r="O24">
-        <v>1.36921875</v>
+        <v>1.395522876500952</v>
       </c>
       <c r="P24">
         <v>143.0832716467784</v>
@@ -1816,7 +1816,7 @@
         <v>55</v>
       </c>
       <c r="I25">
-        <v>10</v>
+        <v>13.0158303464755</v>
       </c>
       <c r="J25">
         <v>8000</v>
@@ -1863,7 +1863,7 @@
         <v>54</v>
       </c>
       <c r="I26">
-        <v>10</v>
+        <v>16.86342592592595</v>
       </c>
       <c r="J26">
         <v>8000</v>
@@ -1878,10 +1878,10 @@
         <v>127296.3126829774</v>
       </c>
       <c r="N26">
-        <v>1.303382352941176</v>
+        <v>1.358217807733239</v>
       </c>
       <c r="O26">
-        <v>1.36921875</v>
+        <v>1.430585745597461</v>
       </c>
       <c r="P26">
         <v>15.91203908537217</v>
@@ -1916,7 +1916,7 @@
         <v>54</v>
       </c>
       <c r="I27">
-        <v>10</v>
+        <v>-3.847222222222223</v>
       </c>
       <c r="J27">
         <v>8000</v>
@@ -1931,10 +1931,10 @@
         <v>528597.6567886297</v>
       </c>
       <c r="N27">
-        <v>1.303382352941176</v>
+        <v>1.205212661479187</v>
       </c>
       <c r="O27">
-        <v>1.36921875</v>
+        <v>1.260158184868579</v>
       </c>
       <c r="P27">
         <v>66.07470709857871</v>
@@ -2075,7 +2075,7 @@
         <v>54</v>
       </c>
       <c r="I30">
-        <v>10</v>
+        <v>12.41429539295394</v>
       </c>
       <c r="J30">
         <v>8000</v>
@@ -2090,10 +2090,10 @@
         <v>459068.6159146749</v>
       </c>
       <c r="N30">
-        <v>1.303382352941176</v>
+        <v>1.322159312571127</v>
       </c>
       <c r="O30">
-        <v>1.36921875</v>
+        <v>1.390195897186759</v>
       </c>
       <c r="P30">
         <v>57.38357698933437</v>
@@ -2128,7 +2128,7 @@
         <v>54</v>
       </c>
       <c r="I31">
-        <v>10</v>
+        <v>19.60879629629628</v>
       </c>
       <c r="J31">
         <v>8000</v>
@@ -2143,10 +2143,10 @@
         <v>402321.776539363</v>
       </c>
       <c r="N31">
-        <v>1.303382352941176</v>
+        <v>1.381466033569542</v>
       </c>
       <c r="O31">
-        <v>1.36921875</v>
+        <v>1.45670088811587</v>
       </c>
       <c r="P31">
         <v>50.29022206742038</v>
